--- a/data/raid calc/Добавлено.xlsx
+++ b/data/raid calc/Добавлено.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
-    <sheet name="weapon" sheetId="2" r:id="rId2"/>
+    <sheet name="weapons" sheetId="2" r:id="rId2"/>
     <sheet name="items" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="161">
   <si>
     <t>Деревянная дверь</t>
   </si>
@@ -151,45 +151,30 @@
     <t>SatchelCharge_image</t>
   </si>
   <si>
-    <t>8-4;9-1;10-1</t>
-  </si>
-  <si>
     <t>TimedExplosiveCharge</t>
   </si>
   <si>
     <t>TimedExplosiveCharge_image</t>
   </si>
   <si>
-    <t>12-20;11-5;13-2</t>
-  </si>
-  <si>
     <t>Rocket</t>
   </si>
   <si>
     <t>Rocket_image</t>
   </si>
   <si>
-    <t>16-2;1-150;12-10</t>
-  </si>
-  <si>
     <t>Hatchet</t>
   </si>
   <si>
     <t>Hatchet_image</t>
   </si>
   <si>
-    <t>2-75;17-100</t>
-  </si>
-  <si>
     <t>PickAxe</t>
   </si>
   <si>
     <t>PickAxe_image</t>
   </si>
   <si>
-    <t>2-125;17-100</t>
-  </si>
-  <si>
     <t>SalvagedSword</t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>HandmadeShell_image</t>
   </si>
   <si>
-    <t>1-5;19-5</t>
-  </si>
-  <si>
     <t>40mmHEGrenade</t>
   </si>
   <si>
@@ -265,9 +247,6 @@
     <t>SmallStash_image</t>
   </si>
   <si>
-    <t>11-10</t>
-  </si>
-  <si>
     <t>Rope</t>
   </si>
   <si>
@@ -286,9 +265,6 @@
     <t>Explosives_image</t>
   </si>
   <si>
-    <t>1-50;14-3;4-10;2-10</t>
-  </si>
-  <si>
     <t>TechTrash</t>
   </si>
   <si>
@@ -301,9 +277,6 @@
     <t>LowGradeFuel_image</t>
   </si>
   <si>
-    <t>15-0.75;11-0.25</t>
-  </si>
-  <si>
     <t>AnimalFat</t>
   </si>
   <si>
@@ -332,6 +305,210 @@
   </si>
   <si>
     <t>Stone_image</t>
+  </si>
+  <si>
+    <t>Деревянные оконные решётки</t>
+  </si>
+  <si>
+    <t>WoodenWindowBars</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>WoodenWindowBars_image</t>
+  </si>
+  <si>
+    <t>1-13;2-3;3-1;4-1;5-12;6-11;7-9;8-48;10-6</t>
+  </si>
+  <si>
+    <t>Металлические оконные решётки</t>
+  </si>
+  <si>
+    <t>MetalWindowBars</t>
+  </si>
+  <si>
+    <t>MetalWindowBars_image</t>
+  </si>
+  <si>
+    <t>Укреплённые оконные решётки</t>
+  </si>
+  <si>
+    <t>ReinforcedWindowBars</t>
+  </si>
+  <si>
+    <t>ReinforcedWindowBars_image</t>
+  </si>
+  <si>
+    <t>1-84;2-18;3-3;4-6;8-300;10-30</t>
+  </si>
+  <si>
+    <t>Окно из армированного стекла</t>
+  </si>
+  <si>
+    <t>ReinforcedGlassWindow</t>
+  </si>
+  <si>
+    <t>ReinforcedGlassWindow_image</t>
+  </si>
+  <si>
+    <t>1-56;2-12;3-2;4-4;8-201;10-20</t>
+  </si>
+  <si>
+    <t>Металлическая горизонтальная бойница</t>
+  </si>
+  <si>
+    <t>MetalHorizontalEmbrasure</t>
+  </si>
+  <si>
+    <t>MetalHorizontalEmbrasure_image</t>
+  </si>
+  <si>
+    <t>1-59;2-13;3-2;4-4;8-171;10-20;11-143</t>
+  </si>
+  <si>
+    <t>ОТПРАВЛЯЛ 10 ФЕВРАЛЯ</t>
+  </si>
+  <si>
+    <t>НОВОЕ</t>
+  </si>
+  <si>
+    <t>Деревянная стена(твердая сторона)</t>
+  </si>
+  <si>
+    <t>WoodenWall(StrongSide)</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>WoodenWallStrongSide_image</t>
+  </si>
+  <si>
+    <t>1-13;2-3;3-1;4-2;5-12;7-9;8-50;9-93;10-6;11-39</t>
+  </si>
+  <si>
+    <t>Каменная стена(твердая сторона)</t>
+  </si>
+  <si>
+    <t>StoneWall(StrongSide)</t>
+  </si>
+  <si>
+    <t>StoneWallStrongSide_image</t>
+  </si>
+  <si>
+    <t>1-46;2-10;3-2;4-4;8-188;10-20</t>
+  </si>
+  <si>
+    <t>Металлическая стена(твердая сторона)</t>
+  </si>
+  <si>
+    <t>MetalWall(StrongSide)</t>
+  </si>
+  <si>
+    <t>MetalWallStrongSide_image</t>
+  </si>
+  <si>
+    <t>1-112;2-23;3-4;4-8;8-406;10-40</t>
+  </si>
+  <si>
+    <t>Бронированная стена(твердая сторона)</t>
+  </si>
+  <si>
+    <t>ArmoredWall(StrongSide)</t>
+  </si>
+  <si>
+    <t>ArmoredWallStrongSide_image</t>
+  </si>
+  <si>
+    <t>1-223;2-46;3-8;4-15;8-800;10-80</t>
+  </si>
+  <si>
+    <t>Тюремная решетка</t>
+  </si>
+  <si>
+    <t>PrisonCellWall</t>
+  </si>
+  <si>
+    <t>PrisonCellWall_image</t>
+  </si>
+  <si>
+    <t>Сетчатый забор</t>
+  </si>
+  <si>
+    <t>ChainlinkFence</t>
+  </si>
+  <si>
+    <t>ChainlinkFence_image</t>
+  </si>
+  <si>
+    <t>1-6;2-2;3-1;4-1;8-20;10-2</t>
+  </si>
+  <si>
+    <t>Металлический магазин</t>
+  </si>
+  <si>
+    <t>MetalShopFront</t>
+  </si>
+  <si>
+    <t>MetalShopFront_image</t>
+  </si>
+  <si>
+    <t>1-84;2-18;3-3;4-6;8-301;10-30</t>
+  </si>
+  <si>
+    <t>Высокий деревянный забор</t>
+  </si>
+  <si>
+    <t>HighExternalWoodenWall</t>
+  </si>
+  <si>
+    <t>HighExternalWoodenWall_image</t>
+  </si>
+  <si>
+    <t>1-26;2-6;3-2;4-3;8-97;9-186;10-12;11-77</t>
+  </si>
+  <si>
+    <t>Высокий каменный забор</t>
+  </si>
+  <si>
+    <t>HighExternalStoneWall</t>
+  </si>
+  <si>
+    <t>HighExternalStoneWall_image</t>
+  </si>
+  <si>
+    <t>1-46;2-10;3-2;4-4;8-187;10-20</t>
+  </si>
+  <si>
+    <t>ОТПРАВЛЯЛ 12 ФЕВРАЛЯ</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>1-50;11-3;4-10;2-10</t>
+  </si>
+  <si>
+    <t>12-0.75;8-0.25</t>
+  </si>
+  <si>
+    <t>5-4;6-1;7-1</t>
+  </si>
+  <si>
+    <t>9-20;8-5;10-2</t>
+  </si>
+  <si>
+    <t>13-2;1-150;9-10</t>
+  </si>
+  <si>
+    <t>2-75;14-100</t>
+  </si>
+  <si>
+    <t>2-125;14-100</t>
+  </si>
+  <si>
+    <t>1-5;16-5</t>
   </si>
 </sst>
 </file>
@@ -341,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +550,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +592,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -445,12 +644,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,6 +844,114 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,52 +1234,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="H2" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -817,15 +1297,16 @@
       <c r="F3" s="1">
         <v>250</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -840,15 +1321,16 @@
       <c r="F4" s="1">
         <v>800</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -863,15 +1345,16 @@
       <c r="F5" s="1">
         <v>250</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -886,15 +1369,16 @@
       <c r="F6" s="1">
         <v>250</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -909,15 +1393,16 @@
       <c r="F7" s="1">
         <v>75</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -932,15 +1417,16 @@
       <c r="F8" s="1">
         <v>600</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -955,34 +1441,381 @@
       <c r="F9" s="1">
         <v>500</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="17">
         <v>500</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="18" t="s">
         <v>35</v>
       </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="20">
+        <v>250</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="9">
+        <v>500</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="9">
+        <v>750</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="9">
+        <v>500</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="25">
+        <v>500</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="29">
+        <v>250</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="27">
+        <v>500</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="27">
+        <v>250</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="27">
+        <v>100</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="27">
+        <v>750</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="27">
+        <v>500</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="34">
+        <v>500</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="H16:H24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -992,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1862,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1037,13 +1870,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1051,13 +1884,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1079,13 +1912,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,13 +1926,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,13 +1940,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,13 +1954,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,10 +1968,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -1147,13 +1980,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1165,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1196,10 +2029,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1208,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1220,10 +2053,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1246,13 +2079,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1260,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1272,10 +2105,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1284,13 +2117,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1298,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -1310,13 +2143,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,10 +2157,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1336,10 +2169,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1348,10 +2181,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1360,10 +2193,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1372,10 +2205,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D17" s="8"/>
     </row>
